--- a/Test/Epsilon/MSE1000005.xlsx
+++ b/Test/Epsilon/MSE1000005.xlsx
@@ -426,37 +426,37 @@
         <v>0.3098566011895502</v>
       </c>
       <c r="B1" t="n">
-        <v>0.1120171639589682</v>
+        <v>0.1891338819606697</v>
       </c>
       <c r="C1" t="n">
-        <v>0.05531292625287664</v>
+        <v>0.05206152579998336</v>
       </c>
       <c r="D1" t="n">
-        <v>0.05234004488084765</v>
+        <v>0.04846923984922619</v>
       </c>
       <c r="E1" t="n">
-        <v>0.04787332655474345</v>
+        <v>0.04669450402507341</v>
       </c>
       <c r="F1" t="n">
-        <v>0.03718955597880683</v>
+        <v>0.04311712470330437</v>
       </c>
       <c r="G1" t="n">
-        <v>0.03101428345918012</v>
+        <v>0.03460173390673271</v>
       </c>
       <c r="H1" t="n">
-        <v>0.03078490547862144</v>
+        <v>0.03340301155161651</v>
       </c>
       <c r="I1" t="n">
-        <v>0.02988981083700191</v>
+        <v>0.03322340187197662</v>
       </c>
       <c r="J1" t="n">
-        <v>0.02947209565770881</v>
+        <v>0.03308652638670922</v>
       </c>
       <c r="K1" t="n">
-        <v>0.02919774563589777</v>
+        <v>0.03306047443871451</v>
       </c>
       <c r="L1" t="n">
-        <v>0.0291586455741718</v>
+        <v>0.03285896008367684</v>
       </c>
     </row>
   </sheetData>
